--- a/biology/Botanique/Portulacaceae/Portulacaceae.xlsx
+++ b/biology/Botanique/Portulacaceae/Portulacaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Portulacaceae (Portulacées) regroupe des plantes dicotylédones ; elle comprend 500 espèces réparties en 19 à 21 genres.
 L'origine du nom est à chercher du côté du latin porcacla, cette plante ayant été donnée, dès l'antiquité, aux porcs. Le médecin Oribase en fit le synonyme de porcillagine herba (l'un des noms vernaculaires de cette plante étant d'ailleurs porcelaine). Plus tard, le nom fut déformé, par métathèse, en portulaca.
@@ -516,9 +528,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Portulaca, nom latin de la plante, qui pourrait avoir pour origine le mot portula, petite porte, en référence au fruit en capsule s’ouvrant comme un couvercle de boite. Une autre hypothèse serait de rapprocher le nom du genre à porcus, cette plante ayant servi à nourrir les porcs[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Portulaca, nom latin de la plante, qui pourrait avoir pour origine le mot portula, petite porte, en référence au fruit en capsule s’ouvrant comme un couvercle de boite. Une autre hypothèse serait de rapprocher le nom du genre à porcus, cette plante ayant servi à nourrir les porcs.
 </t>
         </is>
       </c>
@@ -547,12 +561,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (2 Sep 2010)[2] et NCBI  (2 Sep 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (2 Sep 2010) et NCBI  (2 Sep 2010) :
 genre Portulaca
-Les autres genres précédemment considérés dans Portulacaceae sont considérés par Angiosperm Phylogeny Website                        (2 Sep 2010)[2] et NCBI  (2 Sep 2010)[3] comme placés dans la famille Montiaceae lui-même passé dans le sous-ordre Portulacacineae.
-Selon DELTA Angio           (4 mai 2010)[4] :
+Les autres genres précédemment considérés dans Portulacaceae sont considérés par Angiosperm Phylogeny Website                        (2 Sep 2010) et NCBI  (2 Sep 2010) comme placés dans la famille Montiaceae lui-même passé dans le sous-ordre Portulacacineae.
+Selon DELTA Angio           (4 mai 2010) :
 genre Amphipetalum
 genre Anacampseros
 genre Baitaria
@@ -573,7 +589,7 @@
 genre Talinella
 genre Talinopsis
 genre Talinum
-Selon ITIS      (4 mai 2010)[5] :
+Selon ITIS      (4 mai 2010) :
 genre Calandrinia  Kunth
 genre Calyptridium
 genre Cistanthe  Spach
